--- a/packages/shared-types/src/test-cases/excel-sources/v1.0/v1.0_test-05_renaison.xlsx
+++ b/packages/shared-types/src/test-cases/excel-sources/v1.0/v1.0_test-05_renaison.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mutafriches\algo-v1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ademecloud-my.sharepoint.com/personal/anna_lefoulon_ademe_fr/Documents/Bureau/3-OUTILS FRICHE/MUTAFRICHES/Tests_V1-ALGO/V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81113DF7-CBD7-46CE-9037-D86F97E92514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{E634FC12-7DD1-413A-8F43-186915709F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FA74028-A8C4-4945-8CA6-6CD5F5187391}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="18195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outil" sheetId="1" r:id="rId1"/>
     <sheet name="Base" sheetId="2" r:id="rId2"/>
     <sheet name="Listes_déroulantes" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Outil!$A$1:$K$41</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="176">
   <si>
     <t>Culture, tourisme</t>
   </si>
@@ -1042,7 +1045,7 @@
       <protection hidden="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1240,6 +1243,14 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1386,6 +1397,128 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Outil"/>
+      <sheetName val="Base"/>
+      <sheetName val="Listes_déroulantes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="29">
+          <cell r="C29">
+            <v>7</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Très positif</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v>Neutre</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>8</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Positif</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="J30" t="str">
+            <v>Neutre</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>9</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Négatif</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="H31" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="J31" t="str">
+            <v>Neutre</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32" t="str">
+            <v>Très négatif</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>Neutre</v>
+          </cell>
+          <cell r="J32" t="str">
+            <v>Neutre</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1688,13 +1821,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="68" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" customWidth="1"/>
@@ -1715,7 +1848,7 @@
     <col min="62" max="1021" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1732,7 +1865,7 @@
       <c r="N1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1749,7 +1882,7 @@
       <c r="N2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1766,7 +1899,7 @@
       <c r="N3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1783,7 +1916,7 @@
       <c r="N4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1800,26 +1933,26 @@
       <c r="N5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="29"/>
       <c r="C7" s="1"/>
@@ -1836,7 +1969,7 @@
       <c r="N7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1867,7 +2000,7 @@
       <c r="N8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1881,7 +2014,7 @@
       <c r="N9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -1893,7 +2026,7 @@
       <c r="N10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
@@ -1922,7 +2055,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1954,7 +2087,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1977,7 +2110,7 @@
       <c r="N13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -2000,7 +2133,7 @@
       <c r="N14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -2023,7 +2156,7 @@
       <c r="N15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2078,7 +2211,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="41" t="s">
         <v>18</v>
@@ -2131,7 +2264,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="41" t="s">
         <v>19</v>
@@ -2184,7 +2317,7 @@
       </c>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -2214,7 +2347,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="42" t="s">
         <v>21</v>
@@ -2267,7 +2400,7 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="43" t="s">
         <v>22</v>
@@ -2320,7 +2453,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2375,7 +2508,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="40" t="s">
         <v>26</v>
@@ -2388,31 +2521,31 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!D$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!D$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!D$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!D$31))))),"0","")</f>
+        <f>IFERROR(IF(C23&lt;[1]Base!C29,[1]Base!D29,IF(C23&lt;[1]Base!C30,[1]Base!D30,IF(C23&lt;[1]Base!C31,[1]Base!D31,[1]Base!D32))),"")</f>
         <v>Positif</v>
       </c>
       <c r="G23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!E$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!E$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!E$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!E$31))))),"0","")</f>
+        <f>IFERROR(IF(D23&lt;[1]Base!D29,[1]Base!E29,IF(D23&lt;[1]Base!D30,[1]Base!E30,IF(D23&lt;[1]Base!D31,[1]Base!E31,[1]Base!E32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="H23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!F$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!F$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!F$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!F$31))))),"0","")</f>
+        <f>IFERROR(IF(E23&lt;[1]Base!E29,[1]Base!F29,IF(E23&lt;[1]Base!E30,[1]Base!F30,IF(E23&lt;[1]Base!E31,[1]Base!F31,[1]Base!F32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="I23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!G$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!G$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!G$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!G$31))))),"0","")</f>
+        <f>IFERROR(IF(F23&lt;[1]Base!F29,[1]Base!G29,IF(F23&lt;[1]Base!F30,[1]Base!G30,IF(F23&lt;[1]Base!F31,[1]Base!G31,[1]Base!G32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!H$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!H$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!H$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!H$31))))),"0","")</f>
+        <f>IFERROR(IF(G23&lt;[1]Base!G29,[1]Base!H29,IF(G23&lt;[1]Base!G30,[1]Base!H30,IF(G23&lt;[1]Base!G31,[1]Base!H31,[1]Base!H32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="K23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!I$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!I$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!I$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!I$31))))),"0","")</f>
+        <f>IFERROR(IF(H23&lt;[1]Base!H29,[1]Base!I29,IF(H23&lt;[1]Base!H30,[1]Base!I30,IF(H23&lt;[1]Base!H31,[1]Base!I31,[1]Base!I32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="L23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!J$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!J$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!J$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!J$31))))),"0","")</f>
+        <f>IFERROR(IF(I23&lt;[1]Base!I29,[1]Base!J29,IF(I23&lt;[1]Base!I30,[1]Base!J30,IF(I23&lt;[1]Base!I31,[1]Base!J31,[1]Base!J32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="M23" s="4">
@@ -2425,7 +2558,7 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="43" t="s">
         <v>126</v>
@@ -2471,7 +2604,7 @@
       <c r="N24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="43" t="s">
         <v>106</v>
@@ -2524,7 +2657,7 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="40" t="s">
         <v>127</v>
@@ -2570,7 +2703,7 @@
       <c r="N26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="40" t="s">
         <v>128</v>
@@ -2623,7 +2756,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="40" t="s">
         <v>27</v>
@@ -2676,7 +2809,7 @@
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="40" t="s">
         <v>129</v>
@@ -2722,7 +2855,7 @@
       <c r="N29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2778,7 +2911,7 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="40" t="s">
         <v>131</v>
@@ -2831,7 +2964,7 @@
       </c>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="41" t="s">
         <v>37</v>
@@ -2884,7 +3017,7 @@
       </c>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="41" t="s">
         <v>38</v>
@@ -2937,7 +3070,7 @@
       </c>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2992,7 +3125,7 @@
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="43" t="s">
         <v>134</v>
@@ -3045,7 +3178,7 @@
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="40" t="s">
         <v>33</v>
@@ -3098,7 +3231,7 @@
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="40" t="s">
         <v>34</v>
@@ -3149,7 +3282,7 @@
       </c>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3187,7 +3320,7 @@
       <c r="N38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3225,26 +3358,26 @@
       <c r="N39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
       <c r="M40" s="18"/>
       <c r="N40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3282,7 +3415,7 @@
       <c r="N41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3322,7 +3455,7 @@
       <c r="N42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D43" s="33" t="s">
         <v>119</v>
       </c>
@@ -3355,23 +3488,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F46" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F47" s="10">
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.35344827586206895</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0.48076923076923078</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.2767857142857143</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="K47" s="10">
+        <v>0.65254237288135597</v>
+      </c>
+      <c r="L47" s="10">
+        <v>0.41228070175438597</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F49" s="51">
+        <f>F47-F41</f>
+        <v>-7.7976190476190477E-2</v>
+      </c>
+      <c r="G49" s="51">
+        <f t="shared" ref="G49:L49" si="4">G47-G41</f>
+        <v>-6.3218390804597735E-2</v>
+      </c>
+      <c r="H49" s="51">
+        <f t="shared" si="4"/>
+        <v>-5.9230769230769253E-2</v>
+      </c>
+      <c r="I49" s="51">
+        <f t="shared" si="4"/>
+        <v>-5.9752747252747263E-2</v>
+      </c>
+      <c r="J49" s="51">
+        <f t="shared" si="4"/>
+        <v>-6.1904761904761907E-2</v>
+      </c>
+      <c r="K49" s="50">
+        <f t="shared" si="4"/>
+        <v>3.9334825711544674E-2</v>
+      </c>
+      <c r="L49" s="50">
+        <f t="shared" si="4"/>
+        <v>-4.8503611971104199E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3497,12 +3688,12 @@
   </sheetPr>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
@@ -3518,7 +3709,7 @@
     <col min="14" max="1021" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -3550,7 +3741,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -3585,7 +3776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" s="11" t="s">
         <v>47</v>
       </c>
@@ -3614,7 +3805,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="11" t="s">
         <v>48</v>
       </c>
@@ -3641,7 +3832,7 @@
       </c>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" s="11" t="s">
         <v>50</v>
       </c>
@@ -3667,7 +3858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="11" t="s">
         <v>51</v>
       </c>
@@ -3694,7 +3885,7 @@
       </c>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -3723,7 +3914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="23">
         <v>15000</v>
       </c>
@@ -3749,7 +3940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="23" t="s">
         <v>53</v>
       </c>
@@ -3775,7 +3966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="23">
         <v>50000</v>
       </c>
@@ -3801,7 +3992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -3830,7 +4021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="23">
         <v>10000</v>
       </c>
@@ -3856,7 +4047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -3885,7 +4076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="49" t="s">
         <v>173</v>
       </c>
@@ -3911,7 +4102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="49" t="s">
         <v>174</v>
       </c>
@@ -3937,7 +4128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="49" t="s">
         <v>175</v>
       </c>
@@ -3963,7 +4154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C17" s="11" t="s">
         <v>51</v>
       </c>
@@ -3990,7 +4181,7 @@
       </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -4019,7 +4210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="23" t="s">
         <v>124</v>
       </c>
@@ -4045,7 +4236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="23" t="s">
         <v>148</v>
       </c>
@@ -4071,7 +4262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" s="23" t="s">
         <v>149</v>
       </c>
@@ -4097,7 +4288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" s="11" t="s">
         <v>51</v>
       </c>
@@ -4123,7 +4314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
         <v>23</v>
       </c>
@@ -4152,7 +4343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" s="23" t="s">
         <v>55</v>
       </c>
@@ -4178,7 +4369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C25" s="23" t="s">
         <v>51</v>
       </c>
@@ -4204,7 +4395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4236,7 +4427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C27" s="11" t="s">
         <v>55</v>
       </c>
@@ -4262,7 +4453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C28" s="11" t="s">
         <v>51</v>
       </c>
@@ -4288,7 +4479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>125</v>
       </c>
@@ -4317,7 +4508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C30" s="47" t="s">
         <v>169</v>
       </c>
@@ -4343,7 +4534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="46" t="s">
         <v>170</v>
       </c>
@@ -4369,7 +4560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="46" t="s">
         <v>171</v>
       </c>
@@ -4395,7 +4586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>126</v>
       </c>
@@ -4424,7 +4615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="23" t="s">
         <v>55</v>
       </c>
@@ -4450,7 +4641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="23" t="s">
         <v>51</v>
       </c>
@@ -4476,7 +4667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>106</v>
       </c>
@@ -4505,7 +4696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C37" s="23" t="s">
         <v>108</v>
       </c>
@@ -4531,7 +4722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="23" t="s">
         <v>109</v>
       </c>
@@ -4558,7 +4749,7 @@
       </c>
       <c r="L38" s="30"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="11" t="s">
         <v>51</v>
       </c>
@@ -4584,7 +4775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>127</v>
       </c>
@@ -4613,7 +4804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="28" t="s">
         <v>140</v>
       </c>
@@ -4639,7 +4830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="28" t="s">
         <v>111</v>
       </c>
@@ -4665,7 +4856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="11" t="s">
         <v>117</v>
       </c>
@@ -4691,7 +4882,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="11" t="s">
         <v>51</v>
       </c>
@@ -4717,7 +4908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>128</v>
       </c>
@@ -4746,7 +4937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="11" t="s">
         <v>139</v>
       </c>
@@ -4772,7 +4963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="11" t="s">
         <v>51</v>
       </c>
@@ -4798,7 +4989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>27</v>
       </c>
@@ -4827,7 +5018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C49" s="11" t="s">
         <v>55</v>
       </c>
@@ -4853,7 +5044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C50" s="11" t="s">
         <v>51</v>
       </c>
@@ -4879,7 +5070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>28</v>
       </c>
@@ -4908,7 +5099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C52" s="23" t="s">
         <v>58</v>
       </c>
@@ -4934,7 +5125,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C53" s="11" t="s">
         <v>55</v>
       </c>
@@ -4960,7 +5151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C54" s="11" t="s">
         <v>51</v>
       </c>
@@ -4986,7 +5177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B55" s="24" t="s">
         <v>129</v>
       </c>
@@ -5017,7 +5208,7 @@
       <c r="K55"/>
       <c r="L55" s="30"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C56" s="37" t="s">
         <v>146</v>
       </c>
@@ -5044,7 +5235,7 @@
       </c>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C57" s="37" t="s">
         <v>117</v>
       </c>
@@ -5071,7 +5262,7 @@
       </c>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C58" s="24" t="s">
         <v>51</v>
       </c>
@@ -5098,7 +5289,7 @@
       </c>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -5130,7 +5321,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C60" s="11" t="s">
         <v>61</v>
       </c>
@@ -5156,7 +5347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C61" s="11" t="s">
         <v>130</v>
       </c>
@@ -5183,7 +5374,7 @@
       </c>
       <c r="L61" s="26"/>
     </row>
-    <row r="62" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C62" s="11" t="s">
         <v>115</v>
       </c>
@@ -5210,7 +5401,7 @@
       </c>
       <c r="L62" s="26"/>
     </row>
-    <row r="63" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C63" s="11" t="s">
         <v>116</v>
       </c>
@@ -5237,7 +5428,7 @@
       </c>
       <c r="L63" s="26"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C64" s="11" t="s">
         <v>150</v>
       </c>
@@ -5264,7 +5455,7 @@
       </c>
       <c r="L64" s="26"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="11" t="s">
         <v>62</v>
       </c>
@@ -5290,7 +5481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="11" t="s">
         <v>63</v>
       </c>
@@ -5316,7 +5507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="11" t="s">
         <v>64</v>
       </c>
@@ -5342,7 +5533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="11" t="s">
         <v>51</v>
       </c>
@@ -5368,7 +5559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B69" s="24" t="s">
         <v>131</v>
       </c>
@@ -5397,7 +5588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="23" t="s">
         <v>132</v>
       </c>
@@ -5424,7 +5615,7 @@
       </c>
       <c r="L70" s="30"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="23" t="s">
         <v>133</v>
       </c>
@@ -5451,7 +5642,7 @@
       </c>
       <c r="L71" s="30"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="23" t="s">
         <v>66</v>
       </c>
@@ -5477,7 +5668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="23" t="s">
         <v>51</v>
       </c>
@@ -5503,7 +5694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>37</v>
       </c>
@@ -5532,7 +5723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="11" t="s">
         <v>55</v>
       </c>
@@ -5558,7 +5749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="11" t="s">
         <v>51</v>
       </c>
@@ -5584,7 +5775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>38</v>
       </c>
@@ -5613,7 +5804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C78" s="11" t="s">
         <v>68</v>
       </c>
@@ -5639,7 +5830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="11" t="s">
         <v>69</v>
       </c>
@@ -5666,7 +5857,7 @@
       </c>
       <c r="L79" s="26"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="11" t="s">
         <v>51</v>
       </c>
@@ -5692,7 +5883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -5725,7 +5916,7 @@
       </c>
       <c r="L81" s="30"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C82" s="11" t="s">
         <v>71</v>
       </c>
@@ -5752,7 +5943,7 @@
       </c>
       <c r="L82" s="30"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C83" s="11" t="s">
         <v>72</v>
       </c>
@@ -5778,7 +5969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C84" s="11" t="s">
         <v>73</v>
       </c>
@@ -5804,7 +5995,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C85" s="11" t="s">
         <v>74</v>
       </c>
@@ -5830,7 +6021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C86" s="11" t="s">
         <v>51</v>
       </c>
@@ -5856,7 +6047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>134</v>
       </c>
@@ -5885,7 +6076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C88" s="11" t="s">
         <v>71</v>
       </c>
@@ -5911,7 +6102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C89" s="11" t="s">
         <v>76</v>
       </c>
@@ -5937,7 +6128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C90" s="11" t="s">
         <v>77</v>
       </c>
@@ -5963,7 +6154,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C91" s="11" t="s">
         <v>78</v>
       </c>
@@ -5989,7 +6180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C92" s="11" t="s">
         <v>51</v>
       </c>
@@ -6015,7 +6206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -6047,7 +6238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B94" s="24"/>
       <c r="C94" s="23" t="s">
         <v>101</v>
@@ -6074,7 +6265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B95" s="24"/>
       <c r="C95" s="23" t="s">
         <v>103</v>
@@ -6101,7 +6292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B96" s="24"/>
       <c r="C96" s="23" t="s">
         <v>102</v>
@@ -6128,7 +6319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="24"/>
       <c r="C97" s="23" t="s">
         <v>51</v>
@@ -6155,7 +6346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="24" t="s">
         <v>32</v>
       </c>
@@ -6185,7 +6376,7 @@
       </c>
       <c r="L98" s="30"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="24"/>
       <c r="C99" s="23" t="s">
         <v>55</v>
@@ -6212,7 +6403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="24"/>
       <c r="C100" s="23" t="s">
         <v>51</v>
@@ -6239,7 +6430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>33</v>
       </c>
@@ -6268,7 +6459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C102" s="11" t="s">
         <v>80</v>
       </c>
@@ -6294,7 +6485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C103" s="11" t="s">
         <v>81</v>
       </c>
@@ -6320,7 +6511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C104" s="23" t="s">
         <v>135</v>
       </c>
@@ -6346,7 +6537,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C105" s="23" t="s">
         <v>82</v>
       </c>
@@ -6372,7 +6563,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C106" s="11" t="s">
         <v>51</v>
       </c>
@@ -6398,7 +6589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>83</v>
       </c>
@@ -6427,7 +6618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C108" s="11" t="s">
         <v>85</v>
       </c>
@@ -6453,7 +6644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C109" s="11" t="s">
         <v>86</v>
       </c>
@@ -6479,7 +6670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C110" s="11" t="s">
         <v>87</v>
       </c>
@@ -6505,7 +6696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C111" s="11" t="s">
         <v>51</v>
       </c>
@@ -6531,7 +6722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>88</v>
       </c>
@@ -6560,7 +6751,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C113" s="11" t="s">
         <v>90</v>
       </c>
@@ -6586,7 +6777,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C114" s="11" t="s">
         <v>56</v>
       </c>
@@ -6612,7 +6803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C115" s="11" t="s">
         <v>51</v>
       </c>
@@ -6668,7 +6859,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
@@ -6683,7 +6874,7 @@
     <col min="64" max="1022" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -6748,7 +6939,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -6813,7 +7004,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -6878,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6943,7 +7134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -7005,7 +7196,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -7059,7 +7250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -7094,7 +7285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="E8" s="11"/>
       <c r="L8" t="s">
         <v>150</v>
@@ -7109,22 +7300,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="L10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
         <v>51</v>
       </c>
